--- a/template.xlsx
+++ b/template.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\workOrders\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="330" windowWidth="16035" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Вахитов" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Вахитов!$A$6:$AE$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Вахитов!$A$1:$AE$25</definedName>
     <definedName name="статус">[1]образец!$B$74:$B$76</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -101,7 +107,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -475,140 +481,140 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -774,7 +780,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -809,7 +815,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1023,14 +1029,14 @@
   </sheetPr>
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A5" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
-    <col min="2" max="31" width="4.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="1" customWidth="1"/>
+    <col min="2" max="31" width="5" style="1" customWidth="1"/>
     <col min="32" max="32" width="4.7109375" customWidth="1"/>
     <col min="33" max="33" width="4.7109375" style="1" customWidth="1"/>
     <col min="34" max="16384" width="9.140625" style="1"/>
@@ -1107,15 +1113,15 @@
       <c r="P3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="53" t="s">
+      <c r="Q3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-    </row>
-    <row r="4" spans="1:32" ht="21" x14ac:dyDescent="0.25">
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+    </row>
+    <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="C4" s="2"/>
       <c r="D4" s="16" t="s">
@@ -1128,71 +1134,71 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="54" t="s">
+      <c r="Q4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
     </row>
     <row r="6" spans="1:32" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="40" t="s">
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="41"/>
-      <c r="N6" s="55" t="s">
+      <c r="M6" s="42"/>
+      <c r="N6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="56"/>
-      <c r="AB6" s="56"/>
-      <c r="AC6" s="57"/>
-      <c r="AD6" s="25" t="s">
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="AE6" s="25"/>
+      <c r="AE6" s="57"/>
     </row>
     <row r="7" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="43"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="44"/>
       <c r="N7" s="10">
         <v>1</v>
       </c>
@@ -1239,23 +1245,23 @@
         <v>15</v>
       </c>
       <c r="AC7" s="11"/>
-      <c r="AD7" s="25"/>
-      <c r="AE7" s="25"/>
+      <c r="AD7" s="57"/>
+      <c r="AE7" s="57"/>
     </row>
     <row r="8" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="45"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="46"/>
       <c r="N8" s="10">
         <v>16</v>
       </c>
@@ -1304,29 +1310,29 @@
       <c r="AC8" s="11">
         <v>31</v>
       </c>
-      <c r="AD8" s="25"/>
-      <c r="AE8" s="25"/>
+      <c r="AD8" s="57"/>
+      <c r="AE8" s="57"/>
     </row>
     <row r="9" spans="1:32" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
+      <c r="A9" s="35">
         <v>1</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="36">
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="37">
         <v>42</v>
       </c>
-      <c r="M9" s="37"/>
+      <c r="M9" s="38"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
@@ -1343,23 +1349,23 @@
       <c r="AA9" s="12"/>
       <c r="AB9" s="12"/>
       <c r="AC9" s="12"/>
-      <c r="AD9" s="24"/>
-      <c r="AE9" s="24"/>
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="54"/>
     </row>
     <row r="10" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="39"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="40"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
@@ -1376,29 +1382,29 @@
       <c r="AA10" s="12"/>
       <c r="AB10" s="12"/>
       <c r="AC10" s="12"/>
-      <c r="AD10" s="24"/>
-      <c r="AE10" s="24"/>
+      <c r="AD10" s="54"/>
+      <c r="AE10" s="54"/>
     </row>
     <row r="11" spans="1:32" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
+      <c r="A11" s="35">
         <v>2</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="36">
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="37">
         <v>42</v>
       </c>
-      <c r="M11" s="37"/>
+      <c r="M11" s="38"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
@@ -1415,23 +1421,23 @@
       <c r="AA11" s="12"/>
       <c r="AB11" s="12"/>
       <c r="AC11" s="12"/>
-      <c r="AD11" s="24"/>
-      <c r="AE11" s="24"/>
+      <c r="AD11" s="54"/>
+      <c r="AE11" s="54"/>
     </row>
     <row r="12" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="39"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="40"/>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
@@ -1448,29 +1454,29 @@
       <c r="AA12" s="12"/>
       <c r="AB12" s="12"/>
       <c r="AC12" s="12"/>
-      <c r="AD12" s="24"/>
-      <c r="AE12" s="24"/>
+      <c r="AD12" s="54"/>
+      <c r="AE12" s="54"/>
     </row>
     <row r="13" spans="1:32" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
+      <c r="A13" s="35">
         <v>3</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="36">
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="37">
         <v>42</v>
       </c>
-      <c r="M13" s="37"/>
+      <c r="M13" s="38"/>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
@@ -1487,23 +1493,23 @@
       <c r="AA13" s="12"/>
       <c r="AB13" s="12"/>
       <c r="AC13" s="12"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="24"/>
+      <c r="AD13" s="54"/>
+      <c r="AE13" s="54"/>
     </row>
     <row r="14" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="39"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="40"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
@@ -1520,29 +1526,29 @@
       <c r="AA14" s="12"/>
       <c r="AB14" s="12"/>
       <c r="AC14" s="12"/>
-      <c r="AD14" s="24"/>
-      <c r="AE14" s="24"/>
+      <c r="AD14" s="54"/>
+      <c r="AE14" s="54"/>
     </row>
     <row r="15" spans="1:32" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28">
+      <c r="A15" s="35">
         <v>4</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="36">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="37">
         <v>42</v>
       </c>
-      <c r="M15" s="37"/>
+      <c r="M15" s="38"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
@@ -1559,23 +1565,23 @@
       <c r="AA15" s="12"/>
       <c r="AB15" s="12"/>
       <c r="AC15" s="12"/>
-      <c r="AD15" s="24"/>
-      <c r="AE15" s="24"/>
+      <c r="AD15" s="54"/>
+      <c r="AE15" s="54"/>
     </row>
     <row r="16" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="39"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="40"/>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
@@ -1592,29 +1598,29 @@
       <c r="AA16" s="12"/>
       <c r="AB16" s="12"/>
       <c r="AC16" s="12"/>
-      <c r="AD16" s="24"/>
-      <c r="AE16" s="24"/>
+      <c r="AD16" s="54"/>
+      <c r="AE16" s="54"/>
     </row>
     <row r="17" spans="1:31" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28">
+      <c r="A17" s="35">
         <v>5</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="36">
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="37">
         <v>42</v>
       </c>
-      <c r="M17" s="37"/>
+      <c r="M17" s="38"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
@@ -1631,23 +1637,23 @@
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
       <c r="AC17" s="12"/>
-      <c r="AD17" s="24"/>
-      <c r="AE17" s="24"/>
+      <c r="AD17" s="54"/>
+      <c r="AE17" s="54"/>
     </row>
     <row r="18" spans="1:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="39"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="40"/>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
@@ -1664,29 +1670,29 @@
       <c r="AA18" s="12"/>
       <c r="AB18" s="12"/>
       <c r="AC18" s="12"/>
-      <c r="AD18" s="24"/>
-      <c r="AE18" s="24"/>
+      <c r="AD18" s="54"/>
+      <c r="AE18" s="54"/>
     </row>
     <row r="19" spans="1:31" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+      <c r="A19" s="54">
         <v>6</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="27">
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="56">
         <v>42</v>
       </c>
-      <c r="M19" s="27"/>
+      <c r="M19" s="56"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
@@ -1703,23 +1709,23 @@
       <c r="AA19" s="12"/>
       <c r="AB19" s="12"/>
       <c r="AC19" s="12"/>
-      <c r="AD19" s="24"/>
-      <c r="AE19" s="24"/>
+      <c r="AD19" s="54"/>
+      <c r="AE19" s="54"/>
     </row>
     <row r="20" spans="1:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
@@ -1736,8 +1742,8 @@
       <c r="AA20" s="12"/>
       <c r="AB20" s="12"/>
       <c r="AC20" s="12"/>
-      <c r="AD20" s="24"/>
-      <c r="AE20" s="24"/>
+      <c r="AD20" s="54"/>
+      <c r="AE20" s="54"/>
     </row>
     <row r="21" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y21" s="15"/>
@@ -1747,8 +1753,8 @@
       <c r="AC21" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AD21" s="24"/>
-      <c r="AE21" s="24"/>
+      <c r="AD21" s="54"/>
+      <c r="AE21" s="54"/>
     </row>
     <row r="22" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G22" s="13" t="s">
@@ -1769,8 +1775,8 @@
       <c r="AC22" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="AD22" s="24"/>
-      <c r="AE22" s="24"/>
+      <c r="AD22" s="54"/>
+      <c r="AE22" s="54"/>
     </row>
     <row r="23" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G23" s="14"/>
@@ -1787,8 +1793,8 @@
       <c r="AC23" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="AD23" s="24"/>
-      <c r="AE23" s="24"/>
+      <c r="AD23" s="54"/>
+      <c r="AE23" s="54"/>
     </row>
     <row r="24" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G24" s="13" t="s">
@@ -1827,11 +1833,19 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="34">
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="B9:K10"/>
-    <mergeCell ref="N6:AC6"/>
-    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="AD17:AE18"/>
+    <mergeCell ref="AD6:AE8"/>
+    <mergeCell ref="AD9:AE10"/>
+    <mergeCell ref="AD11:AE12"/>
+    <mergeCell ref="AD13:AE14"/>
+    <mergeCell ref="AD15:AE16"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:K20"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="AD19:AE20"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:K18"/>
     <mergeCell ref="L17:M18"/>
@@ -1848,19 +1862,11 @@
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B13:K14"/>
     <mergeCell ref="B15:K16"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:K20"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="AD19:AE20"/>
-    <mergeCell ref="AD6:AE8"/>
-    <mergeCell ref="AD9:AE10"/>
-    <mergeCell ref="AD11:AE12"/>
-    <mergeCell ref="AD13:AE14"/>
-    <mergeCell ref="AD15:AE16"/>
-    <mergeCell ref="AD17:AE18"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="B9:K10"/>
+    <mergeCell ref="N6:AC6"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1956,4 +1962,16 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -23,7 +23,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Вахитов!$A$1:$AE$25</definedName>
     <definedName name="статус">[1]образец!$B$74:$B$76</definedName>
   </definedNames>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1029,8 +1029,8 @@
   </sheetPr>
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A1:A1048576"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\workOrders\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="330" windowWidth="16035" windowHeight="11040"/>
   </bookViews>
@@ -19,16 +14,17 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Вахитов!$A$6:$AE$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Вахитов!$A$1:$AE$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Вахитов!$A$6:$AE$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Вахитов!$A$1:$AE$29</definedName>
     <definedName name="статус">[1]образец!$B$74:$B$76</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Работник</t>
   </si>
@@ -102,12 +98,18 @@
   </si>
   <si>
     <t>Кондратенко В.В.</t>
+  </si>
+  <si>
+    <t>Зайцев А.А</t>
+  </si>
+  <si>
+    <t>Малинин Д.Ю.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,7 +399,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -481,8 +483,23 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -679,9 +696,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -780,7 +794,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -815,7 +829,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1027,10 +1041,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF25"/>
+  <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A8"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,13 +1127,13 @@
       <c r="P3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="24" t="s">
+      <c r="Q3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
     </row>
     <row r="4" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -1134,71 +1148,71 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="25" t="s">
+      <c r="Q4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
     </row>
     <row r="6" spans="1:32" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="41" t="s">
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="42"/>
-      <c r="N6" s="32" t="s">
+      <c r="M6" s="46"/>
+      <c r="N6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="34"/>
-      <c r="AD6" s="57" t="s">
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="AE6" s="57"/>
+      <c r="AE6" s="61"/>
     </row>
     <row r="7" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="44"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="48"/>
       <c r="N7" s="10">
         <v>1</v>
       </c>
@@ -1245,23 +1259,23 @@
         <v>15</v>
       </c>
       <c r="AC7" s="11"/>
-      <c r="AD7" s="57"/>
-      <c r="AE7" s="57"/>
+      <c r="AD7" s="61"/>
+      <c r="AE7" s="61"/>
     </row>
     <row r="8" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="46"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="50"/>
       <c r="N8" s="10">
         <v>16</v>
       </c>
@@ -1310,29 +1324,29 @@
       <c r="AC8" s="11">
         <v>31</v>
       </c>
-      <c r="AD8" s="57"/>
-      <c r="AE8" s="57"/>
+      <c r="AD8" s="61"/>
+      <c r="AE8" s="61"/>
     </row>
     <row r="9" spans="1:32" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35">
+      <c r="A9" s="39">
         <v>1</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="37">
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="41">
         <v>42</v>
       </c>
-      <c r="M9" s="38"/>
+      <c r="M9" s="42"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
@@ -1349,23 +1363,23 @@
       <c r="AA9" s="12"/>
       <c r="AB9" s="12"/>
       <c r="AC9" s="12"/>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="54"/>
+      <c r="AD9" s="58"/>
+      <c r="AE9" s="58"/>
     </row>
     <row r="10" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="40"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="44"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
@@ -1382,29 +1396,29 @@
       <c r="AA10" s="12"/>
       <c r="AB10" s="12"/>
       <c r="AC10" s="12"/>
-      <c r="AD10" s="54"/>
-      <c r="AE10" s="54"/>
+      <c r="AD10" s="58"/>
+      <c r="AE10" s="58"/>
     </row>
     <row r="11" spans="1:32" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35">
+      <c r="A11" s="39">
         <v>2</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="37">
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="41">
         <v>42</v>
       </c>
-      <c r="M11" s="38"/>
+      <c r="M11" s="42"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
@@ -1421,23 +1435,23 @@
       <c r="AA11" s="12"/>
       <c r="AB11" s="12"/>
       <c r="AC11" s="12"/>
-      <c r="AD11" s="54"/>
-      <c r="AE11" s="54"/>
+      <c r="AD11" s="58"/>
+      <c r="AE11" s="58"/>
     </row>
     <row r="12" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="40"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="44"/>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
@@ -1454,29 +1468,29 @@
       <c r="AA12" s="12"/>
       <c r="AB12" s="12"/>
       <c r="AC12" s="12"/>
-      <c r="AD12" s="54"/>
-      <c r="AE12" s="54"/>
+      <c r="AD12" s="58"/>
+      <c r="AE12" s="58"/>
     </row>
     <row r="13" spans="1:32" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35">
+      <c r="A13" s="39">
         <v>3</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="37">
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="41">
         <v>42</v>
       </c>
-      <c r="M13" s="38"/>
+      <c r="M13" s="42"/>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
@@ -1493,23 +1507,23 @@
       <c r="AA13" s="12"/>
       <c r="AB13" s="12"/>
       <c r="AC13" s="12"/>
-      <c r="AD13" s="54"/>
-      <c r="AE13" s="54"/>
+      <c r="AD13" s="58"/>
+      <c r="AE13" s="58"/>
     </row>
     <row r="14" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="40"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="44"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
@@ -1526,29 +1540,29 @@
       <c r="AA14" s="12"/>
       <c r="AB14" s="12"/>
       <c r="AC14" s="12"/>
-      <c r="AD14" s="54"/>
-      <c r="AE14" s="54"/>
+      <c r="AD14" s="58"/>
+      <c r="AE14" s="58"/>
     </row>
     <row r="15" spans="1:32" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35">
+      <c r="A15" s="39">
         <v>4</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="37">
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="41">
         <v>42</v>
       </c>
-      <c r="M15" s="38"/>
+      <c r="M15" s="42"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
@@ -1565,23 +1579,23 @@
       <c r="AA15" s="12"/>
       <c r="AB15" s="12"/>
       <c r="AC15" s="12"/>
-      <c r="AD15" s="54"/>
-      <c r="AE15" s="54"/>
+      <c r="AD15" s="58"/>
+      <c r="AE15" s="58"/>
     </row>
     <row r="16" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="40"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="44"/>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
@@ -1598,29 +1612,29 @@
       <c r="AA16" s="12"/>
       <c r="AB16" s="12"/>
       <c r="AC16" s="12"/>
-      <c r="AD16" s="54"/>
-      <c r="AE16" s="54"/>
+      <c r="AD16" s="58"/>
+      <c r="AE16" s="58"/>
     </row>
     <row r="17" spans="1:31" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35">
+      <c r="A17" s="39">
         <v>5</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="37">
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="41">
         <v>42</v>
       </c>
-      <c r="M17" s="38"/>
+      <c r="M17" s="42"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
@@ -1637,23 +1651,23 @@
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
       <c r="AC17" s="12"/>
-      <c r="AD17" s="54"/>
-      <c r="AE17" s="54"/>
+      <c r="AD17" s="58"/>
+      <c r="AE17" s="58"/>
     </row>
     <row r="18" spans="1:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="40"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="44"/>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
@@ -1670,29 +1684,29 @@
       <c r="AA18" s="12"/>
       <c r="AB18" s="12"/>
       <c r="AC18" s="12"/>
-      <c r="AD18" s="54"/>
-      <c r="AE18" s="54"/>
+      <c r="AD18" s="58"/>
+      <c r="AE18" s="58"/>
     </row>
     <row r="19" spans="1:31" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="54">
+      <c r="A19" s="58">
         <v>6</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="56">
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="60">
         <v>42</v>
       </c>
-      <c r="M19" s="56"/>
+      <c r="M19" s="60"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
@@ -1709,23 +1723,23 @@
       <c r="AA19" s="12"/>
       <c r="AB19" s="12"/>
       <c r="AC19" s="12"/>
-      <c r="AD19" s="54"/>
-      <c r="AE19" s="54"/>
+      <c r="AD19" s="58"/>
+      <c r="AE19" s="58"/>
     </row>
     <row r="20" spans="1:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
@@ -1742,21 +1756,45 @@
       <c r="AA20" s="12"/>
       <c r="AB20" s="12"/>
       <c r="AC20" s="12"/>
-      <c r="AD20" s="54"/>
-      <c r="AE20" s="54"/>
-    </row>
-    <row r="21" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="23" t="s">
+      <c r="AD20" s="58"/>
+      <c r="AE20" s="58"/>
+    </row>
+    <row r="21" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="AD21" s="54"/>
-      <c r="AE21" s="54"/>
-    </row>
-    <row r="22" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X21" s="55"/>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="55"/>
+      <c r="AB21" s="55"/>
+      <c r="AC21" s="46"/>
+      <c r="AD21" s="45"/>
+      <c r="AE21" s="46"/>
+    </row>
+    <row r="22" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G22" s="13" t="s">
         <v>11</v>
       </c>
@@ -1765,87 +1803,147 @@
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD22" s="54"/>
-      <c r="AE22" s="54"/>
-    </row>
-    <row r="23" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M22" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="56"/>
+      <c r="AB22" s="56"/>
+      <c r="AC22" s="48"/>
+      <c r="AD22" s="49"/>
+      <c r="AE22" s="50"/>
+    </row>
+    <row r="23" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G23" s="14"/>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="16" t="s">
         <v>8</v>
       </c>
       <c r="I23" s="8"/>
       <c r="N23" s="15"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="23" t="s">
+      <c r="W23" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="56"/>
+      <c r="AB23" s="56"/>
+      <c r="AC23" s="48"/>
+      <c r="AD23" s="45"/>
+      <c r="AE23" s="46"/>
+    </row>
+    <row r="24" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
+      <c r="AA24" s="56"/>
+      <c r="AB24" s="56"/>
+      <c r="AC24" s="48"/>
+      <c r="AD24" s="49"/>
+      <c r="AE24" s="50"/>
+    </row>
+    <row r="25" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="AD23" s="54"/>
-      <c r="AE23" s="54"/>
-    </row>
-    <row r="24" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G24" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="R24" s="13" t="s">
+      <c r="AC25" s="48"/>
+      <c r="AD25" s="45"/>
+      <c r="AE25" s="46"/>
+    </row>
+    <row r="26" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="14"/>
+      <c r="H26" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="16"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="56"/>
+      <c r="AC26" s="48"/>
+      <c r="AD26" s="49"/>
+      <c r="AE26" s="50"/>
+    </row>
+    <row r="27" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+    </row>
+    <row r="28" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-    </row>
-    <row r="25" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G25" s="14"/>
-      <c r="H25" s="16" t="s">
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="28"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="5"/>
+    </row>
+    <row r="29" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="14"/>
+      <c r="H29" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="16"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="T25" s="16"/>
-    </row>
+      <c r="I29" s="16"/>
+      <c r="O29" s="5"/>
+    </row>
+    <row r="30" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="34">
+  <mergeCells count="36">
     <mergeCell ref="AD17:AE18"/>
     <mergeCell ref="AD6:AE8"/>
     <mergeCell ref="AD9:AE10"/>
     <mergeCell ref="AD11:AE12"/>
     <mergeCell ref="AD13:AE14"/>
     <mergeCell ref="AD15:AE16"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="AD19:AE20"/>
+    <mergeCell ref="AB25:AC26"/>
+    <mergeCell ref="AD21:AE22"/>
+    <mergeCell ref="AD23:AE24"/>
+    <mergeCell ref="AD25:AE26"/>
+    <mergeCell ref="W21:AC22"/>
+    <mergeCell ref="W23:AC24"/>
+    <mergeCell ref="B11:K12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B13:K14"/>
+    <mergeCell ref="B15:K16"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:K20"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="AD19:AE20"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="B9:K10"/>
+    <mergeCell ref="N6:AC6"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:K18"/>
     <mergeCell ref="L17:M18"/>
@@ -1858,19 +1956,10 @@
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:K8"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:K12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B13:K14"/>
-    <mergeCell ref="B15:K16"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="B9:K10"/>
-    <mergeCell ref="N6:AC6"/>
-    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -1886,7 +1975,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>N9:AC10 Y21:AA22 X22:X23</xm:sqref>
+          <xm:sqref>N9:AC10 X27:X28 Y27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="5" operator="containsText" id="{3B0DE38A-B2B6-4401-B57C-4272F181D046}">
@@ -1956,7 +2045,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>N19:AC20 N22:N23</xm:sqref>
+          <xm:sqref>N19:AC20 N23 O22:P22 S22:V22 N21:W21</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
